--- a/frontapp/listados/promo_111.xlsx
+++ b/frontapp/listados/promo_111.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="186">
   <si>
     <t>Préndete con la pasión de Chayanne</t>
   </si>
@@ -25,6 +25,12 @@
     <t>email</t>
   </si>
   <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>movil</t>
+  </si>
+  <si>
     <t>servicios</t>
   </si>
   <si>
@@ -40,34 +46,532 @@
     <t>Finalizó</t>
   </si>
   <si>
-    <t>facturacion@santamarca.com.mx</t>
-  </si>
-  <si>
-    <t>None,clarovideo,clarodrive,claromusica</t>
+    <t>mordan40@gmail.com</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>5514999919</t>
+  </si>
+  <si>
+    <t>00:01:12</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 13:53:28</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 13:55:05</t>
+  </si>
+  <si>
+    <t>faviel_camacho@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pablo Herminio Faviel Camacho</t>
+  </si>
+  <si>
+    <t>5521459784</t>
+  </si>
+  <si>
+    <t>None,clarovideo</t>
+  </si>
+  <si>
+    <t>00:01:05</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 13:08:40</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 13:10:01</t>
+  </si>
+  <si>
+    <t>ginasan16@gmail.com</t>
+  </si>
+  <si>
+    <t>Georgina</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>00:00:49</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 19:26:19</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 19:27:42</t>
+  </si>
+  <si>
+    <t>eva.nieto_69@hotmail.com</t>
+  </si>
+  <si>
+    <t>Evangelina</t>
+  </si>
+  <si>
+    <t>00:00:34</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 13:22:01</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 13:24:35</t>
+  </si>
+  <si>
+    <t>astp07@gmail.com</t>
+  </si>
+  <si>
+    <t>Astrid Treto</t>
+  </si>
+  <si>
+    <t>5540536330</t>
+  </si>
+  <si>
+    <t>00:00:30</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 13:40:20</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 13:24:51</t>
+  </si>
+  <si>
+    <t>jessyazul88@hotmail.com</t>
+  </si>
+  <si>
+    <t>jessica</t>
+  </si>
+  <si>
+    <t>00:00:29</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 11:34:11</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 11:35:29</t>
+  </si>
+  <si>
+    <t>judymesal@gmail.com</t>
+  </si>
+  <si>
+    <t>Judith Mi��ndez</t>
+  </si>
+  <si>
+    <t>00:00:25</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 09:17:23</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 09:18:05</t>
+  </si>
+  <si>
+    <t>dianamtzbravo96@gmail.com</t>
+  </si>
+  <si>
+    <t>Diana Martinez Bravo</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 17:17:38</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 17:18:14</t>
+  </si>
+  <si>
+    <t>kevoestrada@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin</t>
   </si>
   <si>
     <t>00:00:20</t>
   </si>
   <si>
-    <t>oct. 12 | 2018 | 16:58:49</t>
-  </si>
-  <si>
-    <t>oct. 12 | 2018 | 16:59:53</t>
+    <t>oct. 19 | 2018 | 12:32:53</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 12:33:41</t>
+  </si>
+  <si>
+    <t>eclipse_tarde@hotmail.com</t>
+  </si>
+  <si>
+    <t>BERTHA</t>
+  </si>
+  <si>
+    <t>2461226198</t>
+  </si>
+  <si>
+    <t>00:00:19</t>
+  </si>
+  <si>
+    <t>oct. 24 | 2018 | 16:28:41</t>
+  </si>
+  <si>
+    <t>oct. 24 | 2018 | 16:29:34</t>
+  </si>
+  <si>
+    <t>traveling_27@hotmail.com</t>
+  </si>
+  <si>
+    <t>ISMAEL LEGORRETA ALLENDE</t>
+  </si>
+  <si>
+    <t>3337226699</t>
+  </si>
+  <si>
+    <t>00:01:48</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 12:08:37</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 12:10:49</t>
+  </si>
+  <si>
+    <t>wendygutierrez.esp@hotmail.com</t>
+  </si>
+  <si>
+    <t>Wendy Gutierrez</t>
+  </si>
+  <si>
+    <t>5548540893</t>
+  </si>
+  <si>
+    <t>00:01:47</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 18:09:58</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 18:12:05</t>
+  </si>
+  <si>
+    <t>janele.elizalde@hotmail.com</t>
+  </si>
+  <si>
+    <t>Janele Elizalde Ortega</t>
+  </si>
+  <si>
+    <t>7223942032</t>
+  </si>
+  <si>
+    <t>00:01:04</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 16:50:10</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 16:49:24</t>
+  </si>
+  <si>
+    <t>xuipozas@gmail.com</t>
+  </si>
+  <si>
+    <t>Jesus Andres Ramirez pozas</t>
+  </si>
+  <si>
+    <t>4424468996</t>
+  </si>
+  <si>
+    <t>00:00:35</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 15:02:52</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 15:07:57</t>
+  </si>
+  <si>
+    <t>psic.magda88@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria Del Rosario Paz Barba</t>
+  </si>
+  <si>
+    <t>7341212260</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 22:57:05</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 22:59:02</t>
+  </si>
+  <si>
+    <t>joemedan2128@hotmail.com</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>5591970900</t>
+  </si>
+  <si>
+    <t>00:00:26</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 13:25:51</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 13:25:35</t>
+  </si>
+  <si>
+    <t>lic.eduardo.ibarra@outlook.com</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>6471036203</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>oct. 24 | 2018 | 17:54:20</t>
+  </si>
+  <si>
+    <t>oct. 24 | 2018 | 17:55:08</t>
+  </si>
+  <si>
+    <t>imari_r_delarosa@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ilse Marisol</t>
+  </si>
+  <si>
+    <t>8331401335</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 11:07:03</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 11:06:42</t>
   </si>
   <si>
     <t>diegonavil@gmail.com</t>
   </si>
   <si>
-    <t>None</t>
+    <t>Diego Navarro</t>
+  </si>
+  <si>
+    <t>5522833333</t>
   </si>
   <si>
     <t>00:00:12</t>
   </si>
   <si>
-    <t>oct. 14 | 2018 | 12:46:48</t>
+    <t>oct. 16 | 2018 | 22:40:20</t>
   </si>
   <si>
     <t>oct. 14 | 2018 | 12:47:11</t>
+  </si>
+  <si>
+    <t>lesliedelrio@gmail.com</t>
+  </si>
+  <si>
+    <t>Leslie del Ri��o</t>
+  </si>
+  <si>
+    <t>5547977923</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 16:37:35</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 16:38:11</t>
+  </si>
+  <si>
+    <t>erialvasan@hotmail.com</t>
+  </si>
+  <si>
+    <t>Eri</t>
+  </si>
+  <si>
+    <t>5545009445</t>
+  </si>
+  <si>
+    <t>None,claroentretenimiento,clarovideo</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>oct. 16 | 2018 | 19:50:58</t>
+  </si>
+  <si>
+    <t>oct. 16 | 2018 | 19:51:21</t>
+  </si>
+  <si>
+    <t>diego_landell@hotmail.com</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>2225071474</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 12:54:13</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 12:54:38</t>
+  </si>
+  <si>
+    <t>monsedquistiano@gmail.com</t>
+  </si>
+  <si>
+    <t>Monse</t>
+  </si>
+  <si>
+    <t>8120771833</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>oct. 24 | 2018 | 07:18:52</t>
+  </si>
+  <si>
+    <t>oct. 24 | 2018 | 07:19:12</t>
+  </si>
+  <si>
+    <t>karlacota77@hotmail.com</t>
+  </si>
+  <si>
+    <t>Karla</t>
+  </si>
+  <si>
+    <t>00:01:18</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 13:12:01</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 13:14:57</t>
+  </si>
+  <si>
+    <t>brenda_210887@hotmail.com</t>
+  </si>
+  <si>
+    <t>brenda</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 16:43:23</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 16:44:33</t>
+  </si>
+  <si>
+    <t>tiatita16@gmail.com</t>
+  </si>
+  <si>
+    <t>Rita Hernandez</t>
+  </si>
+  <si>
+    <t>5535753544</t>
+  </si>
+  <si>
+    <t>00:00:28</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 13:51:49</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 13:50:49</t>
+  </si>
+  <si>
+    <t>angellanda111@outlook.com</t>
+  </si>
+  <si>
+    <t>Jose Angel</t>
+  </si>
+  <si>
+    <t>5518754111</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 21:02:29</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 21:04:09</t>
+  </si>
+  <si>
+    <t>marckje02@live.com</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO HERNANDEZ GARDUO</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 09:51:17</t>
+  </si>
+  <si>
+    <t>oct. 18 | 2018 | 09:53:04</t>
+  </si>
+  <si>
+    <t>oscar_roar@hotmail.com</t>
+  </si>
+  <si>
+    <t>OSCAR DANIEL</t>
+  </si>
+  <si>
+    <t>oct. 20 | 2018 | 10:55:12</t>
+  </si>
+  <si>
+    <t>oct. 20 | 2018 | 10:55:41</t>
+  </si>
+  <si>
+    <t>locutor90@hotmail.com</t>
+  </si>
+  <si>
+    <t>Roberto Duarte</t>
+  </si>
+  <si>
+    <t>3338146656</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 17:32:35</t>
+  </si>
+  <si>
+    <t>oct. 23 | 2018 | 17:33:29</t>
+  </si>
+  <si>
+    <t>rjohnsonh@gmail.com</t>
+  </si>
+  <si>
+    <t>Richard Johnson Hurtado</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 18:16:06</t>
+  </si>
+  <si>
+    <t>oct. 19 | 2018 | 18:16:44</t>
+  </si>
+  <si>
+    <t>cruzarios@gmail.com</t>
+  </si>
+  <si>
+    <t>Albertonics</t>
+  </si>
+  <si>
+    <t>5540797004</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>oct. 22 | 2018 | 22:48:23</t>
+  </si>
+  <si>
+    <t>oct. 17 | 2018 | 09:31:37</t>
   </si>
 </sst>
 </file>
@@ -399,18 +903,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -432,51 +936,855 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
